--- a/agents/NSDV/NSDV-Data-Contents.xlsx
+++ b/agents/NSDV/NSDV-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">Nairobi sheep disease is listed in the World Organisation for Animal Health ({ref005:OIE}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:OIE-WAHIS} system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">Nairobi sheep disease is listed in the World Organisation for Animal Health ({ref005:WOAH}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:WOAH-WAHIS} system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the OIE monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
+    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the WOAH monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnosis of Bunyaviral diseases are described in a dedicated chapter of the {ref010:OIE Terrestrial Manual}.</t>
+    <t xml:space="preserve">Diagnosis of Bunyaviral diseases are described in a dedicated chapter of the {ref010:WOAH Terrestrial Manual}.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -441,7 +441,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -519,7 +519,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -552,7 +552,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Bunyaviral diseases. Chapter 3.7.6. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Bunyaviral diseases. Chapter 3.7.6. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.10.01_BUNYAVIRAL_DISEASES.pdf</t>

--- a/agents/NSDV/NSDV-Data-Contents.xlsx
+++ b/agents/NSDV/NSDV-Data-Contents.xlsx
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Disease</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-Nairobi.html</t>
+    <t xml:space="preserve">ExperimentalInfections-Nairobi.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-Nairobi.html</t>
@@ -273,7 +273,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-Nairobi.html</t>

--- a/agents/NSDV/NSDV-Data-Contents.xlsx
+++ b/agents/NSDV/NSDV-Data-Contents.xlsx
@@ -219,7 +219,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-Nairobi.html</t>
+    <t xml:space="preserve">PathogenSurvival-Nairobi.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/NSDV/NSDV-Data-Contents.xlsx
+++ b/agents/NSDV/NSDV-Data-Contents.xlsx
@@ -354,7 +354,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccines were available for use in animals at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccines were available for use in animals at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/NSDV/NSDV-Data-Contents.xlsx
+++ b/agents/NSDV/NSDV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\NSDV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\NSDV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5965A6-66DA-4B54-A079-2C6CF51FD5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB58EF9-90F2-4E17-A897-9AB5D167C45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1600" windowWidth="8680" windowHeight="4780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1139,12 +1139,12 @@
   <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C133" sqref="C133:D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>8</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>7</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>9</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>12</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>13</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>14</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>15</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>11</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>12</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>13</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>14</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>9</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>11</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>12</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13</v>
       </c>
@@ -3396,16 +3396,16 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -3808,9 +3808,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>190</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>193</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>196</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>214</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>232</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>235</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>238</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>241</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>244</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>247</v>
       </c>
